--- a/jlptstudy.net/N5/Kanji.xlsx
+++ b/jlptstudy.net/N5/Kanji.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="474" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="474"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
-    <sheet name="Kanji" sheetId="1" r:id="rId2"/>
+    <sheet name="Details" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="145">
   <si>
     <t>一</t>
   </si>
@@ -345,21 +345,6 @@
     <t>Compounds</t>
   </si>
   <si>
-    <t>一 ひと one (numeric, prefix, suffix)</t>
-  </si>
-  <si>
-    <t>一 ひとつ one, for one thing, only, even (n, n-adv)</t>
-  </si>
-  <si>
-    <t>一握り ひとにぎり handful, small handful (n, adj-no)</t>
-  </si>
-  <si>
-    <t>一員 いちいん person, member (n)</t>
-  </si>
-  <si>
-    <t>一円 いちえん whole district, one yen, throughout (adv, n)</t>
-  </si>
-  <si>
     <t>one, one radical (no.1)</t>
   </si>
   <si>
@@ -373,13 +358,115 @@
   </si>
   <si>
     <t>七 な seven (numeric)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一 </t>
+  </si>
+  <si>
+    <t>ひと one (numeric, prefix, suffix)</t>
+  </si>
+  <si>
+    <t>ひとつ one, for one thing, only, even (n, n-adv)</t>
+  </si>
+  <si>
+    <t>一握り</t>
+  </si>
+  <si>
+    <t>ひとにぎり handful, small handful (n, adj-no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一円 </t>
+  </si>
+  <si>
+    <t>いちえん whole district, one yen, throughout (adv, n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一員 </t>
+  </si>
+  <si>
+    <t>いちいん person, member (n)</t>
+  </si>
+  <si>
+    <t>ten thousand</t>
+  </si>
+  <si>
+    <t>マン, バン</t>
+  </si>
+  <si>
+    <t>よろず</t>
+  </si>
+  <si>
+    <t>万一</t>
+  </si>
+  <si>
+    <t>まんいつ by some chance, by some possibility, 10,000 to 1 odds (adv, n)</t>
+  </si>
+  <si>
+    <t>万引き</t>
+  </si>
+  <si>
+    <t>まんびき shoplifting, shoplifter (n, vs)</t>
+  </si>
+  <si>
+    <t>万事</t>
+  </si>
+  <si>
+    <t>ばんじ all, everything (n)</t>
+  </si>
+  <si>
+    <t>万年筆</t>
+  </si>
+  <si>
+    <t>まんねんひつ fountain pen (n)</t>
+  </si>
+  <si>
+    <t>万人</t>
+  </si>
+  <si>
+    <t>まんにん all people, everybody, ten thousand people (n)</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>サン, ゾウ</t>
+  </si>
+  <si>
+    <t>み, み.つ, みっ.つ</t>
+  </si>
+  <si>
+    <t>再三</t>
+  </si>
+  <si>
+    <t>さいさん again and again, repeatedly (adv, n)</t>
+  </si>
+  <si>
+    <t>三角</t>
+  </si>
+  <si>
+    <t>さんかく triangle, triangular (n)</t>
+  </si>
+  <si>
+    <t>三日月</t>
+  </si>
+  <si>
+    <t>みかずき new moon, crescent moon (n)</t>
+  </si>
+  <si>
+    <t>三流</t>
+  </si>
+  <si>
+    <t>さんりゅう 3rd rate (n)</t>
+  </si>
+  <si>
+    <t>み three (numeric)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +510,24 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -466,6 +571,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,7 +864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -763,12 +881,12 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="51.75">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="51.75">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1274,65 +1392,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="75">
+    <row r="1" spans="1:2" ht="75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="22.5">
+    <row r="3" spans="1:2" ht="22.5">
       <c r="A3" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="19.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="19.5">
+    <row r="6" spans="1:2" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" s="6" customFormat="1"/>
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="6" customFormat="1"/>
     <row r="18" spans="1:1" ht="75">
       <c r="A18" s="2" t="s">
         <v>1</v>
@@ -1340,17 +1476,17 @@
     </row>
     <row r="20" spans="1:1" ht="22.5">
       <c r="A20" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.5">
       <c r="A22" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.5">
       <c r="A23" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75">
@@ -1360,7 +1496,146 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="6" customFormat="1"/>
+    <row r="31" spans="1:1" ht="75">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="22.5">
+      <c r="A33" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" ht="19.5">
+      <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5">
+      <c r="A36" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24">
+      <c r="A39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="24">
+      <c r="A40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24">
+      <c r="A41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24">
+      <c r="A42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24">
+      <c r="A43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1"/>
+    <row r="48" spans="1:3" ht="75">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="22.5">
+      <c r="A50" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19.5">
+      <c r="A52" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.5">
+      <c r="A53" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75">
+      <c r="A55" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="24">
+      <c r="A56" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="24">
+      <c r="A57" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="24">
+      <c r="A58" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="24">
+      <c r="A59" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="24">
+      <c r="A60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Kanji.xlsx
+++ b/jlptstudy.net/N5/Kanji.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="474"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="474" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>一</t>
   </si>
@@ -460,6 +460,84 @@
   </si>
   <si>
     <t>み three (numeric)</t>
+  </si>
+  <si>
+    <t>above, up</t>
+  </si>
+  <si>
+    <t>ジョウ, ショウ, シャン</t>
+  </si>
+  <si>
+    <t>うえ, -うえ, うわ-, かみ, あ.げる, -あ.げる, あ.がる, -あ.がる, あ.がり, -あ.がり, のぼ.る, のぼ.り, のぼ.せる, のぼ.す, よ.す</t>
+  </si>
+  <si>
+    <t>已上</t>
+  </si>
+  <si>
+    <t>いじょう not less than, ... and more, beyond (n-adv, n-t)</t>
+  </si>
+  <si>
+    <t>屋上</t>
+  </si>
+  <si>
+    <t>おくじょう rooftop (n)</t>
+  </si>
+  <si>
+    <t>海上</t>
+  </si>
+  <si>
+    <t>かいじょう (by, at, on) sea, maritime, marine (adj-no)</t>
+  </si>
+  <si>
+    <t>見上げる</t>
+  </si>
+  <si>
+    <t>みあげる to look up at, to raise one's eyes, to admire (Ichidan verb, vt)</t>
+  </si>
+  <si>
+    <t>向上</t>
+  </si>
+  <si>
+    <t>こうじょう elevation, rise, improvement, advancement, progress (n, vs)</t>
+  </si>
+  <si>
+    <t>below, down, descend, give, low, inferior</t>
+  </si>
+  <si>
+    <t>カ, ゲ</t>
+  </si>
+  <si>
+    <t>した, しも, もと, さ.げる, さ.がる, くだ.る, くだ.り, くだ.す, -くだ.す, くだ.さる, お.ろす, お.りる</t>
+  </si>
+  <si>
+    <t>已下</t>
+  </si>
+  <si>
+    <t>いげ not exceeding, and downward (n)</t>
+  </si>
+  <si>
+    <t>下る</t>
+  </si>
+  <si>
+    <t>さがる to hang down, to abate, to retire, to fall, to step back (v5r, intransitive verb)</t>
+  </si>
+  <si>
+    <t>下げる</t>
+  </si>
+  <si>
+    <t>さげる to hang, to lower, to move back, to wear, to dismiss, to grant (Ichidan verb, vt)</t>
+  </si>
+  <si>
+    <t>下さる</t>
+  </si>
+  <si>
+    <t>くださる to give, to confer (Godan verb - -aru special class)</t>
+  </si>
+  <si>
+    <t>下り</t>
+  </si>
+  <si>
+    <t>くだり down-train (going away from Tokyo) (n, n-suf)</t>
   </si>
 </sst>
 </file>
@@ -864,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -891,12 +969,12 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="51.75">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="51.75">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1392,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1532,7 +1610,7 @@
       <c r="A39" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="12"/>
@@ -1541,7 +1619,7 @@
       <c r="A40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1549,7 +1627,7 @@
       <c r="A41" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1557,7 +1635,7 @@
       <c r="A42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1565,7 +1643,7 @@
       <c r="A43" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1602,7 +1680,7 @@
       <c r="A56" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1610,7 +1688,7 @@
       <c r="A57" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1618,7 +1696,7 @@
       <c r="A58" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1626,7 +1704,7 @@
       <c r="A59" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1634,8 +1712,140 @@
       <c r="A60" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="6" customFormat="1"/>
+    <row r="65" spans="1:2" ht="75">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="22.5">
+      <c r="A67" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19.5">
+      <c r="A69" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19.5">
+      <c r="A70" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="A72" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="24">
+      <c r="A73" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="24">
+      <c r="A74" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="24">
+      <c r="A75" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="24">
+      <c r="A76" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="24">
+      <c r="A77" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="6" customFormat="1"/>
+    <row r="82" spans="1:2" ht="75">
+      <c r="A82" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="22.5">
+      <c r="A84" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19.5">
+      <c r="A86" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19.5">
+      <c r="A87" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75">
+      <c r="A89" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="24">
+      <c r="A90" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="24">
+      <c r="A91" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="24">
+      <c r="A92" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="24">
+      <c r="A93" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="24">
+      <c r="A94" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Kanji.xlsx
+++ b/jlptstudy.net/N5/Kanji.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="210">
   <si>
     <t>一</t>
   </si>
@@ -538,6 +538,124 @@
   </si>
   <si>
     <t>くだり down-train (going away from Tokyo) (n, n-suf)</t>
+  </si>
+  <si>
+    <t>in, inside, middle, mean, center</t>
+  </si>
+  <si>
+    <t>チュウ</t>
+  </si>
+  <si>
+    <t>なか, うち, あた.る</t>
+  </si>
+  <si>
+    <t>空中</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>心中</t>
+  </si>
+  <si>
+    <t>真最中</t>
+  </si>
+  <si>
+    <t>真夜中</t>
+  </si>
+  <si>
+    <t>くうちゅう sky, air (n)</t>
+  </si>
+  <si>
+    <t>しゅうちゅう concentration, convergence, centralization, integration, gathering together (n, vs)</t>
+  </si>
+  <si>
+    <t>しんじゅう double suicide, lovers suicide (n, vs)</t>
+  </si>
+  <si>
+    <t>まっさいちゅう midst, middle of, height of (n-adv, n)</t>
+  </si>
+  <si>
+    <t>まよなか dead of night, midnight (n-adv, n-t)</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>キュウ, ク</t>
+  </si>
+  <si>
+    <t>ここの, ここの.つ</t>
+  </si>
+  <si>
+    <t>ここ nine (numeric)</t>
+  </si>
+  <si>
+    <t>two, two radical (no.2)</t>
+  </si>
+  <si>
+    <t>ニ, ジ</t>
+  </si>
+  <si>
+    <t>ふた, ふた.つ, ふたた.び</t>
+  </si>
+  <si>
+    <t>二男</t>
+  </si>
+  <si>
+    <t>じなん second son (n)</t>
+  </si>
+  <si>
+    <t>二子</t>
+  </si>
+  <si>
+    <t>ふたご twins, a twin (n)</t>
+  </si>
+  <si>
+    <t>ふう two (numeric)</t>
+  </si>
+  <si>
+    <t>二階</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にかい second floor, upstairs (n)
+</t>
+  </si>
+  <si>
+    <t>二重</t>
+  </si>
+  <si>
+    <t>ふたえ double, two-fold, two layers, duplex (n, adj-no)</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>ゴ</t>
+  </si>
+  <si>
+    <t>いつ, いつ.つ</t>
+  </si>
+  <si>
+    <t>い five (numeric)</t>
+  </si>
+  <si>
+    <t>五十音</t>
+  </si>
+  <si>
+    <t>ごじゅうおん the Japanese syllabary (n)</t>
+  </si>
+  <si>
+    <t>五分</t>
+  </si>
+  <si>
+    <t>ごぶ half, 50%, tie, evenness, 5 parts, 5% (n-adv, n)</t>
+  </si>
+  <si>
+    <t>四捨五入</t>
+  </si>
+  <si>
+    <t>ししゃごにゅう rounding up (esp. fractions) (n, vs)</t>
   </si>
 </sst>
 </file>
@@ -636,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -660,6 +778,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -979,22 +1108,22 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="51.75">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="51.75">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="51.75">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="51.75">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1470,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1848,6 +1977,242 @@
         <v>170</v>
       </c>
     </row>
+    <row r="96" spans="1:2" s="6" customFormat="1"/>
+    <row r="99" spans="1:2" ht="75">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="22.5">
+      <c r="A101" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19.5">
+      <c r="A103" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="19.5">
+      <c r="A104" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75">
+      <c r="A106" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="24">
+      <c r="A107" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="24">
+      <c r="A108" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="24">
+      <c r="A109" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="24">
+      <c r="A110" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="24">
+      <c r="A111" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="18">
+      <c r="A112" s="16"/>
+    </row>
+    <row r="113" spans="1:2" s="6" customFormat="1"/>
+    <row r="116" spans="1:2" ht="75">
+      <c r="A116" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="22.5">
+      <c r="A118" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="19.5">
+      <c r="A120" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="19.5">
+      <c r="A121" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75">
+      <c r="A123" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="24">
+      <c r="A124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18">
+      <c r="A125" s="16"/>
+    </row>
+    <row r="126" spans="1:2" s="6" customFormat="1"/>
+    <row r="129" spans="1:2" ht="75">
+      <c r="A129" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="22.5">
+      <c r="A131" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="19.5">
+      <c r="A133" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="19.5">
+      <c r="A134" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75">
+      <c r="A136" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="24">
+      <c r="A137" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="24">
+      <c r="A138" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="24">
+      <c r="A139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="24">
+      <c r="A140" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="24">
+      <c r="A141" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="18">
+      <c r="A142" s="16"/>
+    </row>
+    <row r="143" spans="1:2" s="6" customFormat="1"/>
+    <row r="146" spans="1:2" ht="75">
+      <c r="A146" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="22.5">
+      <c r="A148" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="19.5">
+      <c r="A150" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="19.5">
+      <c r="A151" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75">
+      <c r="A153" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="24">
+      <c r="A154" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="24">
+      <c r="A155" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="24">
+      <c r="A156" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="24">
+      <c r="A157" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="18">
+      <c r="A158" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
